--- a/Case 2/Result/Block Moving Distance.xlsx
+++ b/Case 2/Result/Block Moving Distance.xlsx
@@ -84274,7 +84274,7 @@
         <v>7225</v>
       </c>
       <c r="B7225">
-        <v>942.2459531724378</v>
+        <v>263.7883673492171</v>
       </c>
     </row>
     <row r="7226" spans="1:2">
@@ -85634,7 +85634,7 @@
         <v>7395</v>
       </c>
       <c r="B7395">
-        <v>764.7346026205423</v>
+        <v>806.8514628221461</v>
       </c>
     </row>
     <row r="7396" spans="1:2">
@@ -87226,7 +87226,7 @@
         <v>7594</v>
       </c>
       <c r="B7594">
-        <v>1297.312521933621</v>
+        <v>1353.039271243666</v>
       </c>
     </row>
     <row r="7595" spans="1:2">
@@ -87730,7 +87730,7 @@
         <v>7657</v>
       </c>
       <c r="B7657">
-        <v>864.8429272174403</v>
+        <v>784.969598450795</v>
       </c>
     </row>
     <row r="7658" spans="1:2">
@@ -87770,7 +87770,7 @@
         <v>7662</v>
       </c>
       <c r="B7662">
-        <v>864.8429272174403</v>
+        <v>784.969598450795</v>
       </c>
     </row>
     <row r="7663" spans="1:2">
@@ -87922,7 +87922,7 @@
         <v>7681</v>
       </c>
       <c r="B7681">
-        <v>288.3940311362659</v>
+        <v>508.0183154416907</v>
       </c>
     </row>
     <row r="7682" spans="1:2">
@@ -87978,7 +87978,7 @@
         <v>7688</v>
       </c>
       <c r="B7688">
-        <v>1471.380293450913</v>
+        <v>1364.882521762052</v>
       </c>
     </row>
     <row r="7689" spans="1:2">
@@ -88034,7 +88034,7 @@
         <v>7695</v>
       </c>
       <c r="B7695">
-        <v>412.9192419795913</v>
+        <v>476.0945322819973</v>
       </c>
     </row>
     <row r="7696" spans="1:2">
@@ -88954,7 +88954,7 @@
         <v>7810</v>
       </c>
       <c r="B7810">
-        <v>933.4996186511622</v>
+        <v>923.1918492771741</v>
       </c>
     </row>
     <row r="7811" spans="1:2">
@@ -88986,7 +88986,7 @@
         <v>7814</v>
       </c>
       <c r="B7814">
-        <v>803.537092358294</v>
+        <v>923.1918492771741</v>
       </c>
     </row>
     <row r="7815" spans="1:2">
@@ -89002,7 +89002,7 @@
         <v>7816</v>
       </c>
       <c r="B7816">
-        <v>933.4996186511622</v>
+        <v>923.1918492771741</v>
       </c>
     </row>
     <row r="7817" spans="1:2">
@@ -89498,7 +89498,7 @@
         <v>7878</v>
       </c>
       <c r="B7878">
-        <v>398.155956000203</v>
+        <v>456.9561938578486</v>
       </c>
     </row>
     <row r="7879" spans="1:2">
@@ -89898,7 +89898,7 @@
         <v>7928</v>
       </c>
       <c r="B7928">
-        <v>864.8429272174403</v>
+        <v>784.969598450795</v>
       </c>
     </row>
     <row r="7929" spans="1:2">
@@ -89906,7 +89906,7 @@
         <v>7929</v>
       </c>
       <c r="B7929">
-        <v>864.8429272174403</v>
+        <v>784.969598450795</v>
       </c>
     </row>
     <row r="7930" spans="1:2">
@@ -89986,7 +89986,7 @@
         <v>7939</v>
       </c>
       <c r="B7939">
-        <v>683.8191791292614</v>
+        <v>663.2036403812853</v>
       </c>
     </row>
     <row r="7940" spans="1:2">
@@ -90042,7 +90042,7 @@
         <v>7946</v>
       </c>
       <c r="B7946">
-        <v>806.6692068250422</v>
+        <v>794.2998835762564</v>
       </c>
     </row>
     <row r="7947" spans="1:2">
@@ -90050,7 +90050,7 @@
         <v>7947</v>
       </c>
       <c r="B7947">
-        <v>847.829373325394</v>
+        <v>835.4600500766082</v>
       </c>
     </row>
     <row r="7948" spans="1:2">
@@ -92346,7 +92346,7 @@
         <v>8234</v>
       </c>
       <c r="B8234">
-        <v>423.8941265435249</v>
+        <v>663.2036403812853</v>
       </c>
     </row>
     <row r="8235" spans="1:2">
@@ -93514,7 +93514,7 @@
         <v>8380</v>
       </c>
       <c r="B8380">
-        <v>476.0239750070247</v>
+        <v>544.6242525076111</v>
       </c>
     </row>
     <row r="8381" spans="1:2">
@@ -93546,7 +93546,7 @@
         <v>8384</v>
       </c>
       <c r="B8384">
-        <v>451.1863710717662</v>
+        <v>509.9866089294118</v>
       </c>
     </row>
     <row r="8385" spans="1:2">
@@ -94426,7 +94426,7 @@
         <v>8494</v>
       </c>
       <c r="B8494">
-        <v>513.5231728349825</v>
+        <v>719.3240053367417</v>
       </c>
     </row>
     <row r="8495" spans="1:2">
@@ -95418,7 +95418,7 @@
         <v>8618</v>
       </c>
       <c r="B8618">
-        <v>877.8444083035262</v>
+        <v>771.3466366146662</v>
       </c>
     </row>
     <row r="8619" spans="1:2">
@@ -95434,7 +95434,7 @@
         <v>8620</v>
       </c>
       <c r="B8620">
-        <v>729.2297764130623</v>
+        <v>771.3466366146662</v>
       </c>
     </row>
     <row r="8621" spans="1:2">
@@ -95458,7 +95458,7 @@
         <v>8623</v>
       </c>
       <c r="B8623">
-        <v>864.8429272174403</v>
+        <v>784.969598450795</v>
       </c>
     </row>
     <row r="8624" spans="1:2">
@@ -95466,7 +95466,7 @@
         <v>8624</v>
       </c>
       <c r="B8624">
-        <v>864.8429272174403</v>
+        <v>733.5193903253553</v>
       </c>
     </row>
     <row r="8625" spans="1:2">
@@ -95826,7 +95826,7 @@
         <v>8669</v>
       </c>
       <c r="B8669">
-        <v>729.9403239735882</v>
+        <v>849.1972759989771</v>
       </c>
     </row>
     <row r="8670" spans="1:2">
@@ -95914,7 +95914,7 @@
         <v>8680</v>
       </c>
       <c r="B8680">
-        <v>367.3757330880073</v>
+        <v>499.1503036712622</v>
       </c>
     </row>
     <row r="8681" spans="1:2">
